--- a/Encoded Sample - NOK.xlsx
+++ b/Encoded Sample - NOK.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>N°</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,11 +610,11 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5">
-        <v>4.3</v>
-      </c>
-      <c r="H5">
-        <v>4.3</v>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
